--- a/Figures/Projections/Forecasts_SUICM_Region.xlsx
+++ b/Figures/Projections/Forecasts_SUICM_Region.xlsx
@@ -7,6 +7,16 @@
   </bookViews>
   <sheets>
     <sheet name="Americas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Continent" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Island" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Southern Cone" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Non Latin Caribbean" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Central America" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Andean Area" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Brazil" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Latin Caribbean" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mexico" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="North America" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
 </workbook>
 </file>
@@ -764,10 +774,10 @@
         <v>14.1709825267639</v>
       </c>
       <c r="E22" t="n">
-        <v>13.8425586561804</v>
+        <v>13.8254527360182</v>
       </c>
       <c r="F22" t="n">
-        <v>14.4678785381199</v>
+        <v>14.442947335168</v>
       </c>
     </row>
     <row r="23">
@@ -780,10 +790,10 @@
         <v>14.1672429790276</v>
       </c>
       <c r="E23" t="n">
-        <v>13.8429723138012</v>
+        <v>13.8497550927057</v>
       </c>
       <c r="F23" t="n">
-        <v>14.4209151912031</v>
+        <v>14.4443425844209</v>
       </c>
     </row>
     <row r="24">
@@ -796,10 +806,10 @@
         <v>14.2784734000345</v>
       </c>
       <c r="E24" t="n">
-        <v>13.9357031725728</v>
+        <v>13.9486436807345</v>
       </c>
       <c r="F24" t="n">
-        <v>14.5378427344954</v>
+        <v>14.5700814572491</v>
       </c>
     </row>
     <row r="25">
@@ -812,10 +822,10 @@
         <v>14.3715842983024</v>
       </c>
       <c r="E25" t="n">
-        <v>14.0338211185523</v>
+        <v>14.0429434360003</v>
       </c>
       <c r="F25" t="n">
-        <v>14.6412280097237</v>
+        <v>14.6497240297547</v>
       </c>
     </row>
     <row r="26">
@@ -828,10 +838,10 @@
         <v>14.4644543797271</v>
       </c>
       <c r="E26" t="n">
-        <v>14.1387926037428</v>
+        <v>14.1500906945185</v>
       </c>
       <c r="F26" t="n">
-        <v>14.7560835325588</v>
+        <v>14.7489334966578</v>
       </c>
     </row>
     <row r="27">
@@ -844,10 +854,10 @@
         <v>14.5589758250994</v>
       </c>
       <c r="E27" t="n">
-        <v>14.2383204114008</v>
+        <v>14.2208409804274</v>
       </c>
       <c r="F27" t="n">
-        <v>14.8176517351669</v>
+        <v>14.8746897141987</v>
       </c>
     </row>
     <row r="28">
@@ -860,10 +870,10 @@
         <v>14.6539537440699</v>
       </c>
       <c r="E28" t="n">
-        <v>14.3152017251541</v>
+        <v>14.2974100795666</v>
       </c>
       <c r="F28" t="n">
-        <v>14.9382610064594</v>
+        <v>14.9637763295394</v>
       </c>
     </row>
     <row r="29">
@@ -876,10 +886,10 @@
         <v>14.7486127460421</v>
       </c>
       <c r="E29" t="n">
-        <v>14.3802113821211</v>
+        <v>14.4049181538298</v>
       </c>
       <c r="F29" t="n">
-        <v>15.0171418629372</v>
+        <v>15.0778906641569</v>
       </c>
     </row>
     <row r="30">
@@ -892,10 +902,10 @@
         <v>14.8434026744662</v>
       </c>
       <c r="E30" t="n">
-        <v>14.4778639632441</v>
+        <v>14.4722268210397</v>
       </c>
       <c r="F30" t="n">
-        <v>15.1825686351825</v>
+        <v>15.1655194341121</v>
       </c>
     </row>
     <row r="31">
@@ -908,10 +918,10 @@
         <v>14.9381953173104</v>
       </c>
       <c r="E31" t="n">
-        <v>14.574855446307</v>
+        <v>14.5900742642324</v>
       </c>
       <c r="F31" t="n">
-        <v>15.2719165999051</v>
+        <v>15.2583361838608</v>
       </c>
     </row>
     <row r="32">
@@ -924,11 +934,4713 @@
         <v>15.0329844862523</v>
       </c>
       <c r="E32" t="n">
-        <v>14.6829760495166</v>
+        <v>14.6834969988772</v>
       </c>
       <c r="F32" t="n">
-        <v>15.3660495653056</v>
-      </c>
+        <v>15.3980841277672</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6.842921</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.09439082913338</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7.172152</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7.19326460435001</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7.227847</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.25148534898334</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7.439889</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7.38386611365</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7.438718</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7.40861433661667</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7.576733</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.43637871269999</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7.435949</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7.41878698598332</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7.315489</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.40731441869996</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7.723963</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.73702874123337</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8.111539</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.97030848541672</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7.955842</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8.15148991838337</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>9.013883</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8.69687096438333</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8.246389</v>
+      </c>
+      <c r="C14" t="n">
+        <v>8.67326244614999</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8.902433</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8.90667451041668</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>9.49258</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9.26030328576668</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="n">
+        <v>9.232318</v>
+      </c>
+      <c r="C17" t="n">
+        <v>9.28467384408335</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n">
+        <v>9.3663</v>
+      </c>
+      <c r="C18" t="n">
+        <v>9.35249417715</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n">
+        <v>9.931651</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9.42871861461666</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>8.833036</v>
+      </c>
+      <c r="C20" t="n">
+        <v>8.94115752051666</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n">
+        <v>8.682118</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8.94687093016666</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>16.4482831864942</v>
+      </c>
+      <c r="C2" t="n">
+        <v>16.6441876824384</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16.9152298537527</v>
+      </c>
+      <c r="C3" t="n">
+        <v>16.798933026636</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>17.1741716710013</v>
+      </c>
+      <c r="C4" t="n">
+        <v>16.9745031267969</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>17.0480373972893</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17.0299404598995</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>16.9814035145122</v>
+      </c>
+      <c r="C6" t="n">
+        <v>17.0404161249672</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>16.9867004714411</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17.0971445936512</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>17.1697537000274</v>
+      </c>
+      <c r="C8" t="n">
+        <v>17.2412650105772</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>17.4457198470552</v>
+      </c>
+      <c r="C9" t="n">
+        <v>17.5332641086575</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n">
+        <v>17.750741558421</v>
+      </c>
+      <c r="C10" t="n">
+        <v>17.6111293441403</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>17.813574718952</v>
+      </c>
+      <c r="C11" t="n">
+        <v>17.7215047679885</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>18.180903179422</v>
+      </c>
+      <c r="C12" t="n">
+        <v>17.9882960127604</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>18.3972328635037</v>
+      </c>
+      <c r="C13" t="n">
+        <v>18.2508596940203</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>18.5100563502146</v>
+      </c>
+      <c r="C14" t="n">
+        <v>18.6867432020438</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n">
+        <v>18.3882725474434</v>
+      </c>
+      <c r="C15" t="n">
+        <v>18.7633805368663</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>18.9087885868154</v>
+      </c>
+      <c r="C16" t="n">
+        <v>19.0703453157195</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="n">
+        <v>19.5150387068405</v>
+      </c>
+      <c r="C17" t="n">
+        <v>19.6431119599793</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n">
+        <v>20.6064849363848</v>
+      </c>
+      <c r="C18" t="n">
+        <v>20.4805852940457</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n">
+        <v>22.0205724039148</v>
+      </c>
+      <c r="C19" t="n">
+        <v>21.079201840486</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>21.1586626062881</v>
+      </c>
+      <c r="C20" t="n">
+        <v>21.5389060363955</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n">
+        <v>21.6793547404016</v>
+      </c>
+      <c r="C21" t="n">
+        <v>21.9052647021058</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" t="n">
+        <v>22.4590605368953</v>
+      </c>
+      <c r="E22" t="n">
+        <v>21.8047443421075</v>
+      </c>
+      <c r="F22" t="n">
+        <v>25.5434513030367</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23" t="n">
+        <v>23.0516386817624</v>
+      </c>
+      <c r="E23" t="n">
+        <v>22.0460881492506</v>
+      </c>
+      <c r="F23" t="n">
+        <v>27.1060097000156</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24" t="n">
+        <v>23.5071340783452</v>
+      </c>
+      <c r="E24" t="n">
+        <v>22.3279142501829</v>
+      </c>
+      <c r="F24" t="n">
+        <v>28.5119857383842</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25" t="n">
+        <v>23.8663105768771</v>
+      </c>
+      <c r="E25" t="n">
+        <v>22.6231464193636</v>
+      </c>
+      <c r="F25" t="n">
+        <v>29.6382036724481</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26" t="n">
+        <v>24.1749269684883</v>
+      </c>
+      <c r="E26" t="n">
+        <v>22.8323757802771</v>
+      </c>
+      <c r="F26" t="n">
+        <v>30.6363439244796</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27" t="n">
+        <v>24.4834059310527</v>
+      </c>
+      <c r="E27" t="n">
+        <v>23.1932063774657</v>
+      </c>
+      <c r="F27" t="n">
+        <v>31.4790041135573</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28" t="n">
+        <v>24.7955117007821</v>
+      </c>
+      <c r="E28" t="n">
+        <v>23.3556487207229</v>
+      </c>
+      <c r="F28" t="n">
+        <v>32.5650250374981</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" t="n">
+        <v>25.108871829004</v>
+      </c>
+      <c r="E29" t="n">
+        <v>23.611601894904</v>
+      </c>
+      <c r="F29" t="n">
+        <v>33.2672588564575</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" t="n">
+        <v>25.4214586796323</v>
+      </c>
+      <c r="E30" t="n">
+        <v>23.9375413098485</v>
+      </c>
+      <c r="F30" t="n">
+        <v>34.2933943891503</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" t="n">
+        <v>25.7366562052889</v>
+      </c>
+      <c r="E31" t="n">
+        <v>24.0963643691931</v>
+      </c>
+      <c r="F31" t="n">
+        <v>35.3009940888571</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32" t="n">
+        <v>26.0565244676588</v>
+      </c>
+      <c r="E32" t="n">
+        <v>24.4476073866541</v>
+      </c>
+      <c r="F32" t="n">
+        <v>36.2968598937008</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>12.0810882692429</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12.1547677712644</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>12.5191917938605</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12.4073647464146</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12.457546363713</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12.5116532232258</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>12.3762852474793</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12.3578879319432</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>12.2682277281331</v>
+      </c>
+      <c r="C6" t="n">
+        <v>12.1650326819643</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>12.2957015433148</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12.2703576864538</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>12.260458038133</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12.2633384063955</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>12.2879482582141</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12.2652994592822</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n">
+        <v>12.5387561299521</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12.4020526544966</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>12.5981962671751</v>
+      </c>
+      <c r="C11" t="n">
+        <v>12.7441700920813</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>12.5233052016734</v>
+      </c>
+      <c r="C12" t="n">
+        <v>12.6743485919686</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12.7901743213789</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12.6874595458161</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12.7393537983307</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12.7673783440759</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12.6757545731327</v>
+      </c>
+      <c r="C15" t="n">
+        <v>12.7189848240332</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12.9474059087369</v>
+      </c>
+      <c r="C16" t="n">
+        <v>13.0032571518534</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="n">
+        <v>13.1484502789792</v>
+      </c>
+      <c r="C17" t="n">
+        <v>13.337515810091</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n">
+        <v>13.6251289701018</v>
+      </c>
+      <c r="C18" t="n">
+        <v>13.6069944522178</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n">
+        <v>14.4343471909981</v>
+      </c>
+      <c r="C19" t="n">
+        <v>14.0693453545852</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>14.0174009505216</v>
+      </c>
+      <c r="C20" t="n">
+        <v>14.1189667860865</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n">
+        <v>14.082768436274</v>
+      </c>
+      <c r="C21" t="n">
+        <v>14.1413137550959</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" t="n">
+        <v>14.2317966729705</v>
+      </c>
+      <c r="E22" t="n">
+        <v>13.9156868135332</v>
+      </c>
+      <c r="F22" t="n">
+        <v>14.6687129257826</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23" t="n">
+        <v>14.2733655747412</v>
+      </c>
+      <c r="E23" t="n">
+        <v>13.9825780403118</v>
+      </c>
+      <c r="F23" t="n">
+        <v>14.822510968654</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24" t="n">
+        <v>14.3030646396719</v>
+      </c>
+      <c r="E24" t="n">
+        <v>13.9536225729341</v>
+      </c>
+      <c r="F24" t="n">
+        <v>14.9329132727486</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25" t="n">
+        <v>14.3803075489473</v>
+      </c>
+      <c r="E25" t="n">
+        <v>14.0718085401079</v>
+      </c>
+      <c r="F25" t="n">
+        <v>15.0001732010402</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26" t="n">
+        <v>14.4919954313094</v>
+      </c>
+      <c r="E26" t="n">
+        <v>14.2027306307251</v>
+      </c>
+      <c r="F26" t="n">
+        <v>15.0434335155463</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27" t="n">
+        <v>14.61418474193</v>
+      </c>
+      <c r="E27" t="n">
+        <v>14.3335871262168</v>
+      </c>
+      <c r="F27" t="n">
+        <v>15.2493049458016</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28" t="n">
+        <v>14.7256459018213</v>
+      </c>
+      <c r="E28" t="n">
+        <v>14.4070048570147</v>
+      </c>
+      <c r="F28" t="n">
+        <v>15.355812645039</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" t="n">
+        <v>14.8264839017558</v>
+      </c>
+      <c r="E29" t="n">
+        <v>14.5157573531219</v>
+      </c>
+      <c r="F29" t="n">
+        <v>15.448826829998</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" t="n">
+        <v>14.9245351109853</v>
+      </c>
+      <c r="E30" t="n">
+        <v>14.6214361255463</v>
+      </c>
+      <c r="F30" t="n">
+        <v>15.6790809070663</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" t="n">
+        <v>15.0262388393933</v>
+      </c>
+      <c r="E31" t="n">
+        <v>14.7142241849242</v>
+      </c>
+      <c r="F31" t="n">
+        <v>15.7986890851422</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32" t="n">
+        <v>15.1317954101115</v>
+      </c>
+      <c r="E32" t="n">
+        <v>14.7941065438818</v>
+      </c>
+      <c r="F32" t="n">
+        <v>15.9176422763899</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>15.0482464994442</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14.4164145885471</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>13.9681274705598</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14.0531030933628</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>13.3466386622848</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13.5962398618692</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>13.200223441814</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13.4896213097168</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>13.1342139013469</v>
+      </c>
+      <c r="C6" t="n">
+        <v>13.0546534332032</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>12.7645678891477</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13.0110391276771</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>12.9620603159526</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12.7128724073353</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>12.8108829879129</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12.8609013650528</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n">
+        <v>13.0802606198141</v>
+      </c>
+      <c r="C10" t="n">
+        <v>13.0474437357149</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>13.3495114612914</v>
+      </c>
+      <c r="C11" t="n">
+        <v>13.4366576463503</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>13.6543136389854</v>
+      </c>
+      <c r="C12" t="n">
+        <v>13.400758403861</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>13.3381224281247</v>
+      </c>
+      <c r="C13" t="n">
+        <v>13.3580975350938</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13.223264039074</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13.1805233962379</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13.323364506349</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13.4158061064762</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>13.3059934357715</v>
+      </c>
+      <c r="C16" t="n">
+        <v>13.3773478281502</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="n">
+        <v>13.5712034764457</v>
+      </c>
+      <c r="C17" t="n">
+        <v>13.4681994780135</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n">
+        <v>13.1130917798271</v>
+      </c>
+      <c r="C18" t="n">
+        <v>13.2517331285316</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n">
+        <v>13.0050078628926</v>
+      </c>
+      <c r="C19" t="n">
+        <v>12.9445978182664</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12.6425168166188</v>
+      </c>
+      <c r="C20" t="n">
+        <v>12.5736464132048</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12.4053119087457</v>
+      </c>
+      <c r="C21" t="n">
+        <v>12.5972664657379</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>16.3013225219963</v>
+      </c>
+      <c r="C2" t="n">
+        <v>16.2707849968369</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16.9421400636252</v>
+      </c>
+      <c r="C3" t="n">
+        <v>16.7274810524488</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>16.729431228108</v>
+      </c>
+      <c r="C4" t="n">
+        <v>16.7438200755714</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>15.9660172523241</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15.9145703239549</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>15.0723697995111</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15.0393637932209</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14.4264612841078</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14.9385642944391</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14.7601625101068</v>
+      </c>
+      <c r="C8" t="n">
+        <v>14.7922551540158</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>14.6905325977885</v>
+      </c>
+      <c r="C9" t="n">
+        <v>14.4413733691972</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n">
+        <v>15.3515850174848</v>
+      </c>
+      <c r="C10" t="n">
+        <v>15.4445896921383</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>15.3634286880169</v>
+      </c>
+      <c r="C11" t="n">
+        <v>15.5242328510935</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>14.995172460498</v>
+      </c>
+      <c r="C12" t="n">
+        <v>14.9598391646969</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>15.0292638686042</v>
+      </c>
+      <c r="C13" t="n">
+        <v>14.8506549533001</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>15.2590738103778</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14.7270137340807</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14.3076157375231</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14.5006144619634</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15.0207524441548</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14.832024521579</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="n">
+        <v>14.0760282512782</v>
+      </c>
+      <c r="C17" t="n">
+        <v>14.586177300093</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n">
+        <v>14.3736179543089</v>
+      </c>
+      <c r="C18" t="n">
+        <v>14.5322959611528</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n">
+        <v>14.5659975058943</v>
+      </c>
+      <c r="C19" t="n">
+        <v>14.4602547950068</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>14.7229349877102</v>
+      </c>
+      <c r="C20" t="n">
+        <v>14.4610694437173</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n">
+        <v>13.8766725317068</v>
+      </c>
+      <c r="C21" t="n">
+        <v>14.083600576619</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" t="n">
+        <v>13.7652601960656</v>
+      </c>
+      <c r="E22" t="n">
+        <v>13.2736613844423</v>
+      </c>
+      <c r="F22" t="n">
+        <v>14.3416449767823</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23" t="n">
+        <v>13.2829804464467</v>
+      </c>
+      <c r="E23" t="n">
+        <v>12.7912431218888</v>
+      </c>
+      <c r="F23" t="n">
+        <v>13.8294492846245</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24" t="n">
+        <v>13.1176612250434</v>
+      </c>
+      <c r="E24" t="n">
+        <v>12.5972248390238</v>
+      </c>
+      <c r="F24" t="n">
+        <v>13.7174646094906</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25" t="n">
+        <v>12.9670728602392</v>
+      </c>
+      <c r="E25" t="n">
+        <v>12.433849044155</v>
+      </c>
+      <c r="F25" t="n">
+        <v>13.563336628551</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26" t="n">
+        <v>12.8449196065888</v>
+      </c>
+      <c r="E26" t="n">
+        <v>12.2725573847344</v>
+      </c>
+      <c r="F26" t="n">
+        <v>13.4840433239979</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27" t="n">
+        <v>12.7478589067814</v>
+      </c>
+      <c r="E27" t="n">
+        <v>12.2405051469028</v>
+      </c>
+      <c r="F27" t="n">
+        <v>13.4256841415349</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28" t="n">
+        <v>12.6342953386244</v>
+      </c>
+      <c r="E28" t="n">
+        <v>12.1259933427558</v>
+      </c>
+      <c r="F28" t="n">
+        <v>13.2937413850223</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" t="n">
+        <v>12.5232847532941</v>
+      </c>
+      <c r="E29" t="n">
+        <v>12.0354331729762</v>
+      </c>
+      <c r="F29" t="n">
+        <v>13.2047581605555</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" t="n">
+        <v>12.412460910386</v>
+      </c>
+      <c r="E30" t="n">
+        <v>11.8725101982561</v>
+      </c>
+      <c r="F30" t="n">
+        <v>13.0663705088452</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" t="n">
+        <v>12.2960046559727</v>
+      </c>
+      <c r="E31" t="n">
+        <v>11.6984537049929</v>
+      </c>
+      <c r="F31" t="n">
+        <v>12.9440335349865</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32" t="n">
+        <v>12.1822735436924</v>
+      </c>
+      <c r="E32" t="n">
+        <v>11.6657476438722</v>
+      </c>
+      <c r="F32" t="n">
+        <v>12.8289090841764</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>18.1591970560959</v>
+      </c>
+      <c r="C2" t="n">
+        <v>18.5372561650781</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>19.1090073004733</v>
+      </c>
+      <c r="C3" t="n">
+        <v>18.9781194239509</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>18.8828779965879</v>
+      </c>
+      <c r="C4" t="n">
+        <v>18.6049724184127</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>17.3916691012121</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17.4483238584542</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>17.1352656584423</v>
+      </c>
+      <c r="C6" t="n">
+        <v>16.8799120772912</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>16.751005729783</v>
+      </c>
+      <c r="C7" t="n">
+        <v>16.8673071450087</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>15.9480536656298</v>
+      </c>
+      <c r="C8" t="n">
+        <v>16.0818210590772</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>16.0302677954969</v>
+      </c>
+      <c r="C9" t="n">
+        <v>15.9223042947934</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n">
+        <v>16.6525922776039</v>
+      </c>
+      <c r="C10" t="n">
+        <v>16.6444870031175</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>15.8048357140479</v>
+      </c>
+      <c r="C11" t="n">
+        <v>15.60902974529</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>16.0786301829408</v>
+      </c>
+      <c r="C12" t="n">
+        <v>15.8837713666784</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>15.5372826312498</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15.8094704464073</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>15.5334660926058</v>
+      </c>
+      <c r="C14" t="n">
+        <v>16.026235843306</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n">
+        <v>16.5039915142964</v>
+      </c>
+      <c r="C15" t="n">
+        <v>16.3425921165389</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>16.5125179495094</v>
+      </c>
+      <c r="C16" t="n">
+        <v>16.3882250043691</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16.1192261598908</v>
+      </c>
+      <c r="C17" t="n">
+        <v>16.0916675686129</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n">
+        <v>15.8754925557589</v>
+      </c>
+      <c r="C18" t="n">
+        <v>15.9249772982769</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n">
+        <v>15.8094800925141</v>
+      </c>
+      <c r="C19" t="n">
+        <v>16.0126154283421</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>16.0628611431184</v>
+      </c>
+      <c r="C20" t="n">
+        <v>16.0071762155257</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n">
+        <v>16.149980176662</v>
+      </c>
+      <c r="C21" t="n">
+        <v>15.9874363153879</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" t="n">
+        <v>16.0406080164398</v>
+      </c>
+      <c r="E22" t="n">
+        <v>15.3328549995091</v>
+      </c>
+      <c r="F22" t="n">
+        <v>16.5851950298465</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23" t="n">
+        <v>15.8155418595841</v>
+      </c>
+      <c r="E23" t="n">
+        <v>15.4389611939751</v>
+      </c>
+      <c r="F23" t="n">
+        <v>16.3292658088031</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24" t="n">
+        <v>15.700941064015</v>
+      </c>
+      <c r="E24" t="n">
+        <v>15.2136459086958</v>
+      </c>
+      <c r="F24" t="n">
+        <v>16.241686495869</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25" t="n">
+        <v>15.6330047221133</v>
+      </c>
+      <c r="E25" t="n">
+        <v>15.2737132405386</v>
+      </c>
+      <c r="F25" t="n">
+        <v>16.1851881095555</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26" t="n">
+        <v>15.5131120109562</v>
+      </c>
+      <c r="E26" t="n">
+        <v>15.0601226550423</v>
+      </c>
+      <c r="F26" t="n">
+        <v>16.0800024988278</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27" t="n">
+        <v>15.2718655969874</v>
+      </c>
+      <c r="E27" t="n">
+        <v>14.9108029168358</v>
+      </c>
+      <c r="F27" t="n">
+        <v>15.829134703917</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28" t="n">
+        <v>15.2061799524715</v>
+      </c>
+      <c r="E28" t="n">
+        <v>14.8123895286229</v>
+      </c>
+      <c r="F28" t="n">
+        <v>15.818471776356</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" t="n">
+        <v>15.0395346015376</v>
+      </c>
+      <c r="E29" t="n">
+        <v>14.6559838814618</v>
+      </c>
+      <c r="F29" t="n">
+        <v>15.6024642215727</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" t="n">
+        <v>14.941737902029</v>
+      </c>
+      <c r="E30" t="n">
+        <v>14.4949576970111</v>
+      </c>
+      <c r="F30" t="n">
+        <v>15.4948665449148</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" t="n">
+        <v>14.7527218228015</v>
+      </c>
+      <c r="E31" t="n">
+        <v>14.3484103731458</v>
+      </c>
+      <c r="F31" t="n">
+        <v>15.3425605802126</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32" t="n">
+        <v>14.6653911463186</v>
+      </c>
+      <c r="E32" t="n">
+        <v>14.2500627103794</v>
+      </c>
+      <c r="F32" t="n">
+        <v>15.2705604103032</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>13.9284643988361</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14.1567859149026</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14.2039517948359</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14.3573348222308</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>13.6727411516218</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14.2098525090869</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14.7544742991642</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14.3691506912116</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14.8976470323716</v>
+      </c>
+      <c r="C6" t="n">
+        <v>14.8791805055684</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14.8728791261603</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14.5411049682731</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14.2923419448819</v>
+      </c>
+      <c r="C8" t="n">
+        <v>13.4264424655041</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>12.1102862018811</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12.3568291455417</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n">
+        <v>11.4479150425561</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11.697555230228</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11.564286978259</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11.5674381543548</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10.5462979541153</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10.887375476532</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>10.2546603282871</v>
+      </c>
+      <c r="C13" t="n">
+        <v>10.269878904457</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>9.78715218686906</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9.8307105044439</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n">
+        <v>9.85624432911019</v>
+      </c>
+      <c r="C15" t="n">
+        <v>9.4276759689171</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>9.05244347660163</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9.58633855051334</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="n">
+        <v>9.39612217748722</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8.88474280179844</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8.56590156456199</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8.70787155267768</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8.27043297856704</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8.56439774284361</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>8.67618918779753</v>
+      </c>
+      <c r="C20" t="n">
+        <v>8.58646783640871</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n">
+        <v>8.75651351386586</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8.59981192233726</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" t="n">
+        <v>8.46157130804447</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7.58487866355506</v>
+      </c>
+      <c r="F22" t="n">
+        <v>9.02406257657261</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23" t="n">
+        <v>8.26394884523008</v>
+      </c>
+      <c r="E23" t="n">
+        <v>7.41050019009127</v>
+      </c>
+      <c r="F23" t="n">
+        <v>8.93180484399673</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24" t="n">
+        <v>7.89084708260211</v>
+      </c>
+      <c r="E24" t="n">
+        <v>6.99801976460717</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8.51729905007346</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25" t="n">
+        <v>7.50538220392359</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6.67120901009289</v>
+      </c>
+      <c r="F25" t="n">
+        <v>8.19930836419416</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26" t="n">
+        <v>6.98670877584889</v>
+      </c>
+      <c r="E26" t="n">
+        <v>6.16094874762174</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7.61502544911027</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27" t="n">
+        <v>6.48965875838613</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5.65158198218153</v>
+      </c>
+      <c r="F27" t="n">
+        <v>7.19466067053952</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28" t="n">
+        <v>5.98365318263862</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5.17767844919462</v>
+      </c>
+      <c r="F28" t="n">
+        <v>6.58727223536531</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" t="n">
+        <v>5.4876607371973</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.68669191735285</v>
+      </c>
+      <c r="F29" t="n">
+        <v>6.11688890017798</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" t="n">
+        <v>5.01593640249513</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.18118832316717</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5.67445769691049</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" t="n">
+        <v>4.62266928802218</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.7841824619751</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5.32855013533545</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32" t="n">
+        <v>4.27486214292131</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3.41076597009085</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4.91601297123393</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8.50981374023683</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8.49550366194616</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8.52837057098183</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8.50814738236984</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8.31460037171318</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.34730658675589</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8.09895647190472</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.07490689609173</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7.96825475290174</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7.98124530297207</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7.79601264348809</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.76052884666703</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7.56201005219118</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7.63366762387091</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7.53314515262517</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.51898789334427</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7.54851853335645</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.59302393939437</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7.49726401605343</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.5356742800016</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7.42317819143207</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.45919051059463</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>7.36870096812903</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7.24908228932568</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7.27553446555746</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7.05982948294435</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6.67140505341952</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6.73521099636183</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6.45528806058826</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6.59018863095024</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6.55916356339855</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.55096181797503</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6.68159705965137</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.80569492036179</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6.93631517965008</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6.80252802402039</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6.30530337680892</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6.34751422431083</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6.08453583393382</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.06877474776311</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" t="n">
+        <v>5.8764968453508</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5.6457436261227</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6.09970432599653</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23" t="n">
+        <v>5.65365768941409</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5.41320763168299</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5.87462013692083</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24" t="n">
+        <v>5.50088116741244</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5.27834231362736</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5.72264519968422</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25" t="n">
+        <v>5.37785034137996</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5.11479178710903</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5.61422813928876</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26" t="n">
+        <v>5.27666104758739</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5.06032919448691</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5.4766419620197</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27" t="n">
+        <v>5.21849113680029</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.9843815282993</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5.43434172235698</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28" t="n">
+        <v>5.1441950879653</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4.90192245640493</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5.38961366817681</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" t="n">
+        <v>5.00899930838443</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.7587872696785</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5.25561844242437</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" t="n">
+        <v>4.85655189194239</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.60675624654868</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5.09197806246243</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" t="n">
+        <v>4.71265882453128</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4.47616180163651</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4.99086931306976</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32" t="n">
+        <v>4.57444606202231</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.31603044253901</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4.87965959352882</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7.37179</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.65288748626402</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8.045699</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7.80438020365862</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7.632336</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.63418431033025</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7.601906</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7.48454094356773</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7.630154</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7.67252251007023</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8.04051</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8.03996239471252</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7.830769</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7.97370786155894</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8.075542</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8.24044678670261</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8.385105</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.09352411805908</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8.344519</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8.18338191507539</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7.853587</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.89261335688937</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8.210645</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8.1354292065523</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8.319654</v>
+      </c>
+      <c r="C14" t="n">
+        <v>8.46144851948739</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8.57838</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8.43500383626892</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8.667496</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8.76276429548366</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8.894007</v>
+      </c>
+      <c r="C17" t="n">
+        <v>9.06686232672907</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n">
+        <v>9.120209</v>
+      </c>
+      <c r="C18" t="n">
+        <v>9.30851774171202</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n">
+        <v>9.876238</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9.94134162176101</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10.402491</v>
+      </c>
+      <c r="C20" t="n">
+        <v>10.1336346763301</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n">
+        <v>10.316732</v>
+      </c>
+      <c r="C21" t="n">
+        <v>10.2806148887868</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" t="n">
+        <v>10.0231251928929</v>
+      </c>
+      <c r="E22" t="n">
+        <v>9.66828655780479</v>
+      </c>
+      <c r="F22" t="n">
+        <v>10.3294913540422</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23" t="n">
+        <v>10.1840571961797</v>
+      </c>
+      <c r="E23" t="n">
+        <v>9.78757675737504</v>
+      </c>
+      <c r="F23" t="n">
+        <v>10.538314391767</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24" t="n">
+        <v>10.3902339597597</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10.0047656307454</v>
+      </c>
+      <c r="F24" t="n">
+        <v>10.78319534306</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25" t="n">
+        <v>10.546680553407</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10.1686522848827</v>
+      </c>
+      <c r="F25" t="n">
+        <v>10.9221403978655</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26" t="n">
+        <v>10.6636548633864</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10.2473478655065</v>
+      </c>
+      <c r="F26" t="n">
+        <v>11.0107906114576</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27" t="n">
+        <v>10.7911939222173</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10.4153678575362</v>
+      </c>
+      <c r="F27" t="n">
+        <v>11.1524973168183</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28" t="n">
+        <v>10.9205296150879</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10.5284963468886</v>
+      </c>
+      <c r="F28" t="n">
+        <v>11.2952756832208</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" t="n">
+        <v>11.0579126035319</v>
+      </c>
+      <c r="E29" t="n">
+        <v>10.6194205200444</v>
+      </c>
+      <c r="F29" t="n">
+        <v>11.4430768842274</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" t="n">
+        <v>11.1969025481759</v>
+      </c>
+      <c r="E30" t="n">
+        <v>10.7540604749024</v>
+      </c>
+      <c r="F30" t="n">
+        <v>11.6076711076396</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" t="n">
+        <v>11.3359600505916</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10.8666690791935</v>
+      </c>
+      <c r="F31" t="n">
+        <v>11.7727106473503</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32" t="n">
+        <v>11.4724906524283</v>
+      </c>
+      <c r="E32" t="n">
+        <v>11.0025559042242</v>
+      </c>
+      <c r="F32" t="n">
+        <v>11.8817197979733</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>15.9156604126061</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15.48626827711</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14.6966645315762</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14.9000637907825</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14.0374312719974</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14.0916950502853</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14.0412446417438</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14.1818977757158</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>13.9711664647713</v>
+      </c>
+      <c r="C6" t="n">
+        <v>13.8837850111484</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>13.5673247279875</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13.7925539089984</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>13.9188181868513</v>
+      </c>
+      <c r="C8" t="n">
+        <v>13.7280254758483</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>13.7048992183586</v>
+      </c>
+      <c r="C9" t="n">
+        <v>13.6248683035194</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n">
+        <v>13.8066488745578</v>
+      </c>
+      <c r="C10" t="n">
+        <v>13.977787423461</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14.316190656518</v>
+      </c>
+      <c r="C11" t="n">
+        <v>14.4529554245913</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>14.7347010695916</v>
+      </c>
+      <c r="C12" t="n">
+        <v>14.4823789396403</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>14.4086581605014</v>
+      </c>
+      <c r="C13" t="n">
+        <v>14.4190494551987</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>14.3803862507769</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14.3817574468472</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14.394179215208</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14.5098537946645</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14.3748847612625</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14.3141839166205</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="n">
+        <v>14.6955377766762</v>
+      </c>
+      <c r="C17" t="n">
+        <v>14.6531572991802</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n">
+        <v>14.2045879860108</v>
+      </c>
+      <c r="C18" t="n">
+        <v>14.3620418375529</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n">
+        <v>14.0920605411818</v>
+      </c>
+      <c r="C19" t="n">
+        <v>14.0585575122776</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>13.6837776605347</v>
+      </c>
+      <c r="C20" t="n">
+        <v>13.4298778648749</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n">
+        <v>13.4073690326692</v>
+      </c>
+      <c r="C21" t="n">
+        <v>13.6214329330638</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
